--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Alphalogic Techsys Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Alphalogic Techsys Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -14,11 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>Year</t>
+  </si>
   <si>
     <t>Key Financial Ratios of Alphalogic Techsys(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Mar 20</t>
+  </si>
+  <si>
+    <t>Mar 21</t>
+  </si>
+  <si>
+    <t>Mar 22</t>
+  </si>
+  <si>
+    <t>Mar 23</t>
+  </si>
+  <si>
+    <t>Mar 24</t>
+  </si>
+  <si>
     <t>Basic EPS (Rs.)</t>
   </si>
   <si>
@@ -122,21 +140,6 @@
   </si>
   <si>
     <t>Earnings Yield</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,291 +507,291 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1">
         <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="C2">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="D2">
-        <v>7.32</v>
-      </c>
-      <c r="E2">
-        <v>36.71</v>
-      </c>
-      <c r="F2">
-        <v>36.71</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>16.86</v>
-      </c>
-      <c r="I2">
-        <v>10.23</v>
-      </c>
-      <c r="J2">
-        <v>10.15</v>
-      </c>
-      <c r="K2">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="L2">
-        <v>7.24</v>
-      </c>
-      <c r="M2">
-        <v>60.64</v>
-      </c>
-      <c r="N2">
-        <v>60.18</v>
-      </c>
-      <c r="O2">
-        <v>56.57</v>
-      </c>
-      <c r="P2">
-        <v>42.94</v>
-      </c>
-      <c r="Q2">
-        <v>19.72</v>
-      </c>
-      <c r="R2">
-        <v>27.63</v>
-      </c>
-      <c r="S2">
-        <v>14.35</v>
-      </c>
-      <c r="T2">
-        <v>0.24</v>
-      </c>
-      <c r="U2">
-        <v>33.42</v>
-      </c>
-      <c r="V2">
-        <v>1.26</v>
-      </c>
-      <c r="W2">
-        <v>1.26</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>26.02</v>
-      </c>
-      <c r="AD2">
-        <v>5.56</v>
-      </c>
-      <c r="AE2">
-        <v>9.17</v>
-      </c>
-      <c r="AF2">
-        <v>5.04</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>2.32</v>
-      </c>
-      <c r="AI2">
-        <v>5.04</v>
-      </c>
-      <c r="AJ2">
-        <v>0.09</v>
+      <c r="AF2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2.14</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="C3">
-        <v>2.14</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D3">
-        <v>2.26</v>
+        <v>7.32</v>
       </c>
       <c r="E3">
-        <v>38.85</v>
+        <v>36.71</v>
       </c>
       <c r="F3">
-        <v>38.85</v>
+        <v>36.71</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6.49</v>
+        <v>16.86</v>
       </c>
       <c r="I3">
-        <v>4.54</v>
+        <v>10.23</v>
       </c>
       <c r="J3">
-        <v>4.42</v>
+        <v>10.15</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="L3">
-        <v>2.14</v>
+        <v>7.24</v>
       </c>
       <c r="M3">
-        <v>69.97</v>
+        <v>60.64</v>
       </c>
       <c r="N3">
-        <v>67.98999999999999</v>
+        <v>60.18</v>
       </c>
       <c r="O3">
-        <v>46.21</v>
+        <v>56.57</v>
       </c>
       <c r="P3">
-        <v>32.88</v>
+        <v>42.94</v>
       </c>
       <c r="Q3">
-        <v>5.49</v>
+        <v>19.72</v>
       </c>
       <c r="R3">
-        <v>11.36</v>
+        <v>27.63</v>
       </c>
       <c r="S3">
-        <v>4.4</v>
+        <v>14.35</v>
       </c>
       <c r="T3">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="U3">
-        <v>13.4</v>
+        <v>33.42</v>
       </c>
       <c r="V3">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W3">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -806,99 +809,99 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>25.36</v>
+        <v>26.02</v>
       </c>
       <c r="AD3">
-        <v>14.07</v>
+        <v>5.56</v>
       </c>
       <c r="AE3">
-        <v>20.1</v>
+        <v>9.17</v>
       </c>
       <c r="AF3">
-        <v>13.12</v>
+        <v>5.04</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.19</v>
+        <v>2.32</v>
       </c>
       <c r="AI3">
-        <v>13.12</v>
+        <v>5.04</v>
       </c>
       <c r="AJ3">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.83</v>
+        <v>2.14</v>
       </c>
       <c r="C4">
-        <v>0.83</v>
+        <v>2.14</v>
       </c>
       <c r="D4">
-        <v>0.78</v>
+        <v>2.26</v>
       </c>
       <c r="E4">
-        <v>7.94</v>
+        <v>38.85</v>
       </c>
       <c r="F4">
-        <v>7.94</v>
+        <v>38.85</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.26</v>
+        <v>6.49</v>
       </c>
       <c r="I4">
+        <v>4.54</v>
+      </c>
+      <c r="J4">
+        <v>4.42</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>2.14</v>
+      </c>
+      <c r="M4">
+        <v>69.97</v>
+      </c>
+      <c r="N4">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O4">
+        <v>46.21</v>
+      </c>
+      <c r="P4">
+        <v>32.88</v>
+      </c>
+      <c r="Q4">
+        <v>5.49</v>
+      </c>
+      <c r="R4">
+        <v>11.36</v>
+      </c>
+      <c r="S4">
+        <v>4.4</v>
+      </c>
+      <c r="T4">
+        <v>0.16</v>
+      </c>
+      <c r="U4">
+        <v>13.4</v>
+      </c>
+      <c r="V4">
         <v>1.27</v>
       </c>
-      <c r="J4">
-        <v>1.25</v>
-      </c>
-      <c r="K4">
-        <v>1.01</v>
-      </c>
-      <c r="L4">
-        <v>0.77</v>
-      </c>
-      <c r="M4">
-        <v>100.71</v>
-      </c>
-      <c r="N4">
-        <v>99.61</v>
-      </c>
-      <c r="O4">
-        <v>79.87</v>
-      </c>
-      <c r="P4">
-        <v>60.96</v>
-      </c>
-      <c r="Q4">
-        <v>9.65</v>
-      </c>
-      <c r="R4">
-        <v>15.08</v>
-      </c>
-      <c r="S4">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="T4">
-        <v>0.15</v>
-      </c>
-      <c r="U4">
-        <v>0.17</v>
-      </c>
-      <c r="V4">
-        <v>0.42</v>
-      </c>
       <c r="W4">
-        <v>0.42</v>
+        <v>1.27</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -916,99 +919,99 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>84.67</v>
+        <v>25.36</v>
       </c>
       <c r="AD4">
-        <v>29.81</v>
+        <v>14.07</v>
       </c>
       <c r="AE4">
-        <v>29.6</v>
+        <v>20.1</v>
       </c>
       <c r="AF4">
-        <v>28.88</v>
+        <v>13.12</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>4.58</v>
+        <v>2.19</v>
       </c>
       <c r="AI4">
-        <v>28.9</v>
+        <v>13.12</v>
       </c>
       <c r="AJ4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="C5">
-        <v>0.55</v>
+        <v>0.83</v>
       </c>
       <c r="D5">
-        <v>0.55</v>
+        <v>0.78</v>
       </c>
       <c r="E5">
-        <v>6.95</v>
+        <v>7.94</v>
       </c>
       <c r="F5">
-        <v>6.95</v>
+        <v>7.94</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="I5">
-        <v>0.8100000000000001</v>
+        <v>1.27</v>
       </c>
       <c r="J5">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="K5">
-        <v>0.72</v>
+        <v>1.01</v>
       </c>
       <c r="L5">
-        <v>0.54</v>
+        <v>0.77</v>
       </c>
       <c r="M5">
-        <v>65.33</v>
+        <v>100.71</v>
       </c>
       <c r="N5">
-        <v>64.73</v>
+        <v>99.61</v>
       </c>
       <c r="O5">
-        <v>58.32</v>
+        <v>79.87</v>
       </c>
       <c r="P5">
-        <v>43.41</v>
+        <v>60.96</v>
       </c>
       <c r="Q5">
-        <v>7.74</v>
+        <v>9.65</v>
       </c>
       <c r="R5">
-        <v>10.95</v>
+        <v>15.08</v>
       </c>
       <c r="S5">
-        <v>6.15</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="T5">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="U5">
         <v>0.17</v>
       </c>
       <c r="V5">
-        <v>0.14</v>
+        <v>0.42</v>
       </c>
       <c r="W5">
-        <v>0.14</v>
+        <v>0.42</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1026,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>117.56</v>
+        <v>84.67</v>
       </c>
       <c r="AD5">
-        <v>27</v>
+        <v>29.81</v>
       </c>
       <c r="AE5">
-        <v>41.32</v>
+        <v>29.6</v>
       </c>
       <c r="AF5">
-        <v>25.94</v>
+        <v>28.88</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="AI5">
-        <v>25.94</v>
+        <v>28.9</v>
       </c>
       <c r="AJ5">
         <v>0.02</v>
@@ -1052,111 +1055,221 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B6">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.55</v>
+      </c>
+      <c r="D6">
+        <v>0.55</v>
+      </c>
+      <c r="E6">
+        <v>6.95</v>
+      </c>
+      <c r="F6">
+        <v>6.95</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1.24</v>
+      </c>
+      <c r="I6">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.8</v>
+      </c>
+      <c r="K6">
+        <v>0.72</v>
+      </c>
+      <c r="L6">
+        <v>0.54</v>
+      </c>
+      <c r="M6">
+        <v>65.33</v>
+      </c>
+      <c r="N6">
+        <v>64.73</v>
+      </c>
+      <c r="O6">
+        <v>58.32</v>
+      </c>
+      <c r="P6">
+        <v>43.41</v>
+      </c>
+      <c r="Q6">
+        <v>7.74</v>
+      </c>
+      <c r="R6">
+        <v>10.95</v>
+      </c>
+      <c r="S6">
+        <v>6.15</v>
+      </c>
+      <c r="T6">
+        <v>0.19</v>
+      </c>
+      <c r="U6">
+        <v>0.17</v>
+      </c>
+      <c r="V6">
+        <v>0.14</v>
+      </c>
+      <c r="W6">
+        <v>0.14</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>117.56</v>
+      </c>
+      <c r="AD6">
+        <v>27</v>
+      </c>
+      <c r="AE6">
+        <v>41.32</v>
+      </c>
+      <c r="AF6">
+        <v>25.94</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>4.63</v>
+      </c>
+      <c r="AI6">
+        <v>25.94</v>
+      </c>
+      <c r="AJ6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>0.62</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0.61</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>0.62</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>6.48</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>6.48</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>1.42</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>0.92</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>0.91</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>0.82</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>0.62</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>64.59</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>64.42</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>57.55</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>43.64</v>
       </c>
-      <c r="Q6">
+      <c r="Q7">
         <v>9.56</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <v>13.74</v>
       </c>
-      <c r="S6">
+      <c r="S7">
         <v>8.27</v>
       </c>
-      <c r="T6">
+      <c r="T7">
         <v>0.11</v>
       </c>
-      <c r="U6">
+      <c r="U7">
         <v>0.2</v>
       </c>
-      <c r="V6">
+      <c r="V7">
         <v>6.25</v>
       </c>
-      <c r="W6">
+      <c r="W7">
         <v>6.25</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <v>380.17</v>
       </c>
-      <c r="AD6">
+      <c r="AD7">
         <v>56.44</v>
       </c>
-      <c r="AE6">
+      <c r="AE7">
         <v>87.38</v>
       </c>
-      <c r="AF6">
+      <c r="AF7">
         <v>55.95</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <v>12.26</v>
       </c>
-      <c r="AI6">
+      <c r="AI7">
         <v>55.95</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ7">
         <v>0.01</v>
       </c>
     </row>

--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Alphalogic Techsys Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Alphalogic Techsys Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -1,37 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Key Financial Ratios of Alphalogic Techsys(in Rs. Cr.)</t>
+  </si>
+  <si>
+    <t>Mar 20</t>
+  </si>
+  <si>
+    <t>Mar 21</t>
+  </si>
+  <si>
+    <t>Mar 22</t>
+  </si>
+  <si>
+    <t>Mar 23</t>
+  </si>
+  <si>
+    <t>Mar 24</t>
+  </si>
+  <si>
+    <t>Basic EPS (Rs.)</t>
+  </si>
+  <si>
+    <t>Diluted EPS (Rs.)</t>
+  </si>
+  <si>
+    <t>Cash EPS (Rs.)</t>
+  </si>
+  <si>
+    <t>Book Value [ExclRevalReserve]/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>Book Value [InclRevalReserve]/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>Dividend / Share(Rs.)</t>
+  </si>
+  <si>
+    <t>Revenue from Operations/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>PBDIT/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>PBIT/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>PBT/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>Net Profit/Share (Rs.)</t>
+  </si>
+  <si>
+    <t>PBDIT Margin (%)</t>
+  </si>
+  <si>
+    <t>PBIT Margin (%)</t>
+  </si>
+  <si>
+    <t>PBT Margin (%)</t>
+  </si>
+  <si>
+    <t>Net Profit Margin (%)</t>
+  </si>
+  <si>
+    <t>Return on Networth / Equity (%)</t>
+  </si>
+  <si>
+    <t>Return on Capital Employed (%)</t>
+  </si>
+  <si>
+    <t>Return on Assets (%)</t>
+  </si>
+  <si>
+    <t>Total Debt/Equity (X)</t>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio (%)</t>
+  </si>
+  <si>
+    <t>Current Ratio (X)</t>
+  </si>
+  <si>
+    <t>Quick Ratio (X)</t>
+  </si>
+  <si>
+    <t>Inventory Turnover Ratio (X)</t>
+  </si>
+  <si>
+    <t>Dividend Payout Ratio (NP) (%)</t>
+  </si>
+  <si>
+    <t>Dividend Payout Ratio (CP) (%)</t>
+  </si>
+  <si>
+    <t>Earnings Retention Ratio (%)</t>
+  </si>
+  <si>
+    <t>Cash Earnings Retention Ratio (%)</t>
+  </si>
+  <si>
+    <t>Enterprise Value (Cr.)</t>
+  </si>
+  <si>
+    <t>EV/Net Operating Revenue (X)</t>
+  </si>
+  <si>
+    <t>EV/EBITDA (X)</t>
+  </si>
+  <si>
+    <t>MarketCap/Net Operating Revenue (X)</t>
+  </si>
+  <si>
+    <t>Retention Ratios (%)</t>
+  </si>
+  <si>
+    <t>Price/BV (X)</t>
+  </si>
+  <si>
+    <t>Price/Net Operating Revenue</t>
+  </si>
+  <si>
+    <t>Earnings Yield</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +180,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,874 +496,784 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:36">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Key Financial Ratios of Alphalogic Techsys(in Rs. Cr.)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Basic EPS (Rs.)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Diluted EPS (Rs.)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cash EPS (Rs.)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Book Value [ExclRevalReserve]/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Book Value [InclRevalReserve]/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Dividend / Share(Rs.)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Revenue from Operations/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>PBDIT/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>PBIT/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>PBT/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Net Profit/Share (Rs.)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>PBDIT Margin (%)</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>PBIT Margin (%)</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>PBT Margin (%)</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Net Profit Margin (%)</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Return on Networth / Equity (%)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Return on Capital Employed (%)</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Return on Assets (%)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Total Debt/Equity (X)</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Asset Turnover Ratio (%)</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Current Ratio (X)</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Quick Ratio (X)</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Inventory Turnover Ratio (X)</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Dividend Payout Ratio (NP) (%)</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Dividend Payout Ratio (CP) (%)</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Earnings Retention Ratio (%)</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>Cash Earnings Retention Ratio (%)</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Enterprise Value (Cr.)</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>EV/Net Operating Revenue (X)</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>EV/EBITDA (X)</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>MarketCap/Net Operating Revenue (X)</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>Retention Ratios (%)</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Price/BV (X)</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Price/Net Operating Revenue</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>Earnings Yield</t>
-        </is>
+    <row r="2" spans="1:36">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mar 20</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:36">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>9.880000000000001</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>9.880000000000001</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>7.32</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>36.71</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>36.71</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>16.86</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>10.23</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>10.15</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>9.539999999999999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>7.24</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>60.64</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>60.18</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>56.57</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>42.94</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>19.72</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>27.63</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>14.35</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>0.24</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>33.42</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>1.26</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>1.26</v>
       </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>26.02</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>5.56</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>9.17</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>5.04</v>
       </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>2.32</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>5.04</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>0.09</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mar 21</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:36">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>2.14</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2.14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2.26</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>38.85</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>38.85</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>6.49</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>4.54</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>4.42</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>2.14</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>69.97</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>67.98999999999999</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>46.21</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>32.88</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>5.49</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>11.36</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>4.4</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>0.16</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>13.4</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>1.27</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>1.27</v>
       </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
         <v>25.36</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>14.07</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>20.1</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>13.12</v>
       </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <v>2.19</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>13.12</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mar 22</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:36">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>0.83</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.83</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.78</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>7.94</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>7.94</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1.26</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>1.27</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>1.25</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>1.01</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>0.77</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>100.71</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>99.61</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>79.87</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>60.96</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>9.65</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>15.08</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>8.289999999999999</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>0.15</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>0.17</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>0.42</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>0.42</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
         <v>84.67</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>29.81</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>29.6</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>28.88</v>
       </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
         <v>4.58</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>28.9</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mar 23</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:36">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>0.5600000000000001</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.55</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.55</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>6.95</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>6.95</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1.24</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.8100000000000001</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.72</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>0.54</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>65.33</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>64.73</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>58.32</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>43.41</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>7.74</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>10.95</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>6.15</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>0.19</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>0.17</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>0.14</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>0.14</v>
       </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
         <v>117.56</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>27</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>41.32</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>25.94</v>
       </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>4.63</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>25.94</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mar 24</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:36">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>0.62</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.61</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.62</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>6.48</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>6.48</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>1.42</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.92</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.91</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.82</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>0.62</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>64.59</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>64.42</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>57.55</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>43.64</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>9.56</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>13.74</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>8.27</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>0.11</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>0.2</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>6.25</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>6.25</v>
       </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <v>380.17</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>56.44</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>87.38</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>55.95</v>
       </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <v>12.26</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>55.95</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>